--- a/test-data/test-data-initial.xlsx
+++ b/test-data/test-data-initial.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\openpyxl-practice\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B48569-06FA-4B07-86D2-0DC9A2433EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8FB742-B0EE-4E95-9696-EDF697B80838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20890" yWindow="11590" windowWidth="15140" windowHeight="8930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11800" yWindow="1500" windowWidth="23130" windowHeight="17380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test1" sheetId="1" r:id="rId1"/>
     <sheet name="Test2" sheetId="2" r:id="rId2"/>
+    <sheet name="Test3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="TileMap">Test1!$B$3:$E$6</definedName>
@@ -29,9 +30,41 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Age</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Alice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bob</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Catherine</t>
+  </si>
+  <si>
+    <t>David</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,8 +107,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,6 +146,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -272,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -290,6 +336,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -645,9 +692,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D35A7A1-48B5-4AAB-A9B6-4597364B50C6}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:E6"/>
     </sheetView>
   </sheetViews>
@@ -714,4 +762,79 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB208D9-7B9D-4716-811B-48AC63215B92}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test-data/test-data-initial.xlsx
+++ b/test-data/test-data-initial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\openpyxl-practice\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8FB742-B0EE-4E95-9696-EDF697B80838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95066367-1FAF-4B00-90E2-FEC75FB9A2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11800" yWindow="1500" windowWidth="23130" windowHeight="17380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11800" yWindow="1500" windowWidth="10760" windowHeight="8530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Test3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="DataArea3">Test3!$A$2:$C$5</definedName>
     <definedName name="TileMap">Test1!$B$3:$E$6</definedName>
     <definedName name="TileMap2">Test2!$B$3:$E$6</definedName>
   </definedNames>
@@ -770,7 +771,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
